--- a/自动编码产品设计.xlsx
+++ b/自动编码产品设计.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="97">
   <si>
     <t>列名</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -102,39 +102,267 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>客户表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>全局变量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动生成代码项目中DB涉及到的字符</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>含义</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>列明</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>举例</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>表名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>表的含义，表注释</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.dblc.empriee.util</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>包名地址</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>作者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>authorName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不二二哈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动项目创建时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>表信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>列信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>id，user_code</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>名字全部是波浪纹</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>列名,数据库原列名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>转义的波浪形列名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>columnClassName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>id,userCode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>转义的波浪形列名，首字母大写</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>columnClassNameFirstCap</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Id,UserCode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>表名，首字母大写</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>columnSqlDataType</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bigint,varchar</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据类型，SQL用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据类型，类用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Integer,String</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据类型长度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>columnDataTypeLength</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20,30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>校验用，class和js</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据默认值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,haha</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sql</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sql用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>true,false</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>true，false</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sql，校验，domain</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>列注释</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>列是否主键</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>列是否非空</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>列是否自增</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>columnAnnotation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键ID,客户CODE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>类，sql，注释用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dbName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库名称：dduser</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dduser</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tableSqlName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>account,dd_account</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>转义的表名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>account,ddAccount</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Account,DdAccount</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pkColumn</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>deleteColumn</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>list normalColumn</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tableClassNameFirstCap</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>tableAnnontation</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>客户表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>全局变量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>自动生成代码项目中DB涉及到的字符</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>含义</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>列明</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>举例</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>表名</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>表的含义，表注释</t>
+    <t>tableClassName</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -142,107 +370,19 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>com.dblc.empriee.util</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>包名地址</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>作者</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>authorName</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>不二二哈</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>自动项目创建时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>projMakeTime</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>表信息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>列信息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>id，user_code</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>名字全部是波浪纹</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>列名,数据库原列名</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>转义的波浪形列名</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>columnClassName</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>columnSqlName</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>id,userCode</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>转义的波浪形列名，首字母大写</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>columnClassNameFirstCap</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Id,UserCode</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>表名，首字母大写</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tableNameFirstCap</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>columnSqlDataType</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>bigint,varchar</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据类型，SQL用</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据类型，类用</t>
+    <t>columnSQLName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>columnSqlDataTypeAllCap</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BIGINT,VARCHAR</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -250,139 +390,19 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Integer,String</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据类型长度</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>columnDataTypeLength</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>20,30</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>校验用，class和js</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据默认值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>columnDataDefaultValue</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1,haha</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>sql</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>sql用</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>isPKColumn</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>true,false</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>isNullColumn</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>true，false</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>sql，校验，domain</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>isAutoUp</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>列注释</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>列是否主键</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>列是否非空</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>列是否自增</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>columnAnnotation</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>主键ID,客户CODE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>类，sql，注释用</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据库</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据库名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>dbName</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据库名称：dduser</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>dduser</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tableSqlName</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>account,dd_account</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>转义的表名</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tableClassName</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>account,ddAccount</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Account,DdAccount</t>
+    <t>isAllowNullColumn</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>isAutoUpColumn</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -848,10 +868,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J45"/>
+  <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -900,7 +920,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="7" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1033,7 +1053,9 @@
       <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="1"/>
+      <c r="A11" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -1045,7 +1067,9 @@
       <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="1"/>
+      <c r="A12" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -1057,7 +1081,9 @@
       <c r="J12" s="1"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="1"/>
+      <c r="A13" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -1082,7 +1108,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1103,7 +1129,7 @@
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -1112,91 +1138,91 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="C17" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="D17" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="H17" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>27</v>
       </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>30</v>
+        <v>87</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H19" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="H20" s="4">
         <v>43334.433599537035</v>
@@ -1206,13 +1232,13 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -1224,13 +1250,13 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -1242,7 +1268,7 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1256,13 +1282,13 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>46</v>
+        <v>89</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -1274,16 +1300,16 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -1294,13 +1320,13 @@
     </row>
     <row r="26" spans="1:10" ht="27">
       <c r="A26" s="6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -1312,13 +1338,13 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -1330,13 +1356,13 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>58</v>
+        <v>91</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -1348,17 +1374,15 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>62</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
@@ -1368,33 +1392,37 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D31" s="1"/>
+        <v>58</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
@@ -1402,17 +1430,15 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>72</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
@@ -1420,16 +1446,16 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
@@ -1438,16 +1464,16 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
@@ -1455,10 +1481,18 @@
       <c r="H34" s="1"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
+      <c r="A35" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
@@ -1475,9 +1509,7 @@
       <c r="H36" s="1"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="5" t="s">
-        <v>81</v>
-      </c>
+      <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1487,43 +1519,45 @@
       <c r="H37" s="1"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>41</v>
-      </c>
+      <c r="A38" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D39" s="1"/>
+      <c r="A39" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
+      <c r="A40" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
@@ -1579,6 +1613,16 @@
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
